--- a/1137372539/localisation/excel/politics_l_german.xlsx
+++ b/1137372539/localisation/excel/politics_l_german.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,9 +20,1194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="396">
   <si>
     <t xml:space="preserve">l_german:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SUBGOAL_HEADER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME$ ($FARBE$$FORTSCHRITT|%0$§!):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SUBGOAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objektiv #$NUMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DRIFT_DIM_RETURN:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trägheit der Partei: §R-$VAL$§!\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POL_DAILY_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tägliche Änderung: $VAL$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POL_OTHERS_DRIFT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund der Veränderungen bei anderen Parteien: $VAL$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NOELECTIONS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Keine Wahlen" #Wahlen deaktiviert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NEXTELECTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nächste Wahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ELECTION_FREQUENCY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahlen alle $MONATS|H$ Jahre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_HOLD_ELECTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahl abhalten in $COUNTRY$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NEXT_ELECTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATUM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ACTIVE_GOAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktives Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_PARTY_NAME:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§H$KEY$ ($VAL$%)§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEOLOGY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TPartei Ideologie: $IDEOLOGIE|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_LEADER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Parteiführer: $LEADER|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_POPULARITY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TPartei-Beliebtheit: §H$VALUE|2$%§!§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_POPULARITY_INCREASE_SPY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$SPY|H$ erhöht die Popularität (§H$VALUE|2$%§! wöchentlich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEOLOGY_POPULARITY_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£boost_popularity_texticon Veränderung der Popularität von $IDEOLOGY$: $VALUE|+2%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SCORE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TTotal Score: $VALUE|0H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_WINDOW:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regierung verwalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADD_IDEA:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§GKlick um $GROUP|H$§ hinzuzufügen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_INVALID_IDEA_REMOVED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Ungültige Idee $IDEA|R$ Entfernt§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_INVALID_IDEA_REMOVED_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Regierungsidee $IDEA|R$ wurde entfernt, weil ihre Voraussetzungen nicht mehr erfüllt sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADVISOR_CANT_AFFORD_CP_REMOVED_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HAdvisor $ADVISOR|R$ Entfernt§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADVISOR_CANT_AFFORD_CP_REMOVED_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir können uns die Aufrechterhaltung der Befehlsgewalt von $ADVISOR$ nicht mehr leisten, und sie wurden aus dem aktiven Dienst entfernt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_INVALID_IDEA_REPLACED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HUngültige Idee $IDEA|R$ Ersetzt§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_INVALID_IDEA_REPLACED_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Voraussetzungen für die Regierungsidee $OLD_IDEA|R$ sind nicht mehr erfüllt, und sie wurde durch $NEW_IDEA|Y$ ersetzt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REMOVE_IDEA_TILE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idee entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REMOVE_IDEA_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchten Sie §Y$IDEA$§! für einen Preis von £pol_power $COST|-0$ entfernen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REPLACE_IDEA_TILE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersetze Idee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REPLACE_IDEA_ARMY_XP_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchten Sie §Y$ALTE_IDEE$§! durch §Y$NEUE_IDEE$§! ersetzen, mit Gesamtkosten von £army_experience $COST|-0$?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REPLACE_IDEA_NAVY_XP_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen, so dass die Gesamtkosten £COST|-0$ für die Marineerfahrung betragen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REPLACE_IDEA_AIR_XP_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen für Gesamtkosten von £air_experience $COST|-0$?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REPLACE_IDEA_POLITICAL_POWER_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wollen Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! zu Gesamtkosten von £pol_power $COST|-0$ ersetzen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CANT_TAKE_IDEAS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§YDu kannst im Moment keine Minister zuweisen oder Gesetze ändern.§!\n§HCan't Assign Ideas:§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten (£pol_power ): $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_COST_COMPACT:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$WERT$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DECISION_COST_COMPACT:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£pol_power $VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_NOT_AVAILABLE_ICON:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£trigger_no $VALUE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_REMOVE_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten für das Entfernen (£pol_power ): $VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_NO_REMOVE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§RCannot remove.§!\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_CANCEL_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird abgebrochen, wenn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_INSTANT_EFFECT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Auswahl:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_OBJECTIVE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TObjectives:§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_SUCCESS_REWARD:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n§Nach Abschluss:§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_NOREWARD:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TNo effect.§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NO_GOAL_SELECTED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NO_GOAL_SELECTED_OWN:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wählen Sie ein Ziel für Ihre Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SELECT_GOAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Klicken Sie, um ein Ziel festzulegen§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SELECT_GOAL_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein §YNationales Ziel§! ist so etwas wie ein Versprechen an die Nation.\n\n Die Wahl eines solchen Ziels kostet dich in der Regel §YPolitische Macht§!, aber du bekommst sie in der Regel zurück und noch mehr Belohnung, wenn du nachweisen kannst, dass du es erreichen konntest.\n\n Hier findest du sowohl große historische Unternehmungen als auch bescheidenere Wege zur Verbesserung deiner Nation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_RESELECT_GOAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Klick zum Entfernen von Goal§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_POLITICAL_POWER_INCREASE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machtveränderung: $WERT|2=+$ pro Tag.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POL_POWER_TOTAL_GAIN:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewinne gesamt $VAL|2=+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten (£pol_power ): $VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_COST_COMPACT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_SUCCEEDED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel erreicht!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_SUCCEEDED_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME|H$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_FAILED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel verfehlt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_FAILED_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME|R$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_NOTIFY_ALL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Länder werden benachrichtigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_NOTIFY_TARGET:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird das Zielland benachrichtigen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_NOTIFY_FACTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benachrichtigt deine Fraktion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_NOTIFY_ALLIES:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird deine Verbündeten benachrichtigen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_WARGOAL_INSTANT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird sofort nach der Vorbereitung zum Kriegsziel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_WARGOAL_DELAYED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird zum Kriegsziel, wenn $PROGRESS|Y0%$ Fortschritt erreicht ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_WARGOAL_UNLOCK:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entriegelt Kriegsziel $NAME|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GRACE_PERIOD_DAYS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nach $DAYS|Y$ Tagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GRACE_PERIOD_END:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereiten bis: $DATE|Y$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_EXPIRE_TIME:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Läuft ab nach: $TIME|Y$ Tagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_SUCCESS_PROGRESS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfolg des Ziels bei: $PROGRESS|Y%0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICAL_POLITICAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANAGE_OCCUPIED_TERRITORIES:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besetzte Territorien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANAGE_SUBJECTS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwalten von Subjekten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manage_occupied_territories_no_occupation:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Sie besetzen im Moment kein Nicht-Kerngebiet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANAGE_OCCUPIED_TERRITORIES_HEADER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremdes Territorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANAGE_EXILED_GOVERNMENTS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exilregierungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHOW_EXILED_STATUS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exil-Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHOW_COLLABORATIONS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollaborationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHOW_EXILED_COLLABORATORS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exil/Kollaborateure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICAL_RESEARCH_BONUS_ENTRY:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$KATEGORIE$: $FAKTOR|=+0%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICAL_EQUIPMENT_TYPE_BONUS_ENTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ARCHETYPE$:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_SUB_CATEGORY_LIMIT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Dürfen nur eine§ haben!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> country_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen, die unser Land motivieren und leiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen, die derzeit die politische Landschaft beherrschen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> military_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen darüber, wie die Armee des Landes funktionieren sollte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> economic_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen, um die Wirtschaft des Landes auf den Krieg vorzubereiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> technology_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen zur Unterstützung des technologischen Fortschritts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> espionage_idea_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideen darüber, wie unser Land Spionage betreibt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> country:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> military:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Militärisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> economic:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirtschaftlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> technology:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> espionage:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spionage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNITY_WEEKLY_TOTAL_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wöchentliche Veränderung: $VAL$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STABILITY_WEEKLY_TOTAL_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nWöchentliche Veränderung: $VAL$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WAR_SUPPORT_WEEKLY_TOTAL_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCCUPATION_POLICY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berufspolitik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation befreien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willst du $COUNTRY|H$ in $LIST|H$ befreien?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebiet zurückgeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wollen Sie $LIST|H$ an $COUNTRY|H$ zurückgeben?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manage_occupied_territories:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Klicken Sie, um Ihre besetzten Gebiete zu verwalten!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manage_occupied_territories_empty:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Sie haben keine besetzten Gebiete zu verwalten!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manage_occupied_territories_puppet:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Sie benötigen einen höheren Autonomiestatus, um Länder freizugeben!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manage_occupied_territories_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Sie können Besetzungsrichtlinien festlegen und Länder freigeben, die Kerne in Ihren besetzten Gebieten haben.§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not_releaseable:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§RNeines deiner Gebiete ist ein Kern von $COUNTRY|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVE_GOAL_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVE_GOAL_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möchten Sie $GOAL|H$ entfernen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REPLACE_GOAL_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersetze Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REPLACE_GOAL_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willst du $OLD|H$ durch $NEW|H$ ersetzen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHANGE_IDEA:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§GKlick um $IDEA|H$§ zu ändern!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVE_IDEA:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§GKlicken Sie, um $IDEA|H$§ zu entfernen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVE_IDEA_POLITICAL_POWER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Du hast nicht genug §HPolitische Macht§! um diese Idee zu entfernen.\nKosten zum Entfernen (£pol_power ): $VALUE|0$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVE_IDEA_ARMY_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Sie haben nicht genug §HArmy XP§! um diese Idee zu entfernen.\nCost to remove (£pol_power ): $WERT|0$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_LEADS_TO:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Führt zu zukünftigen Zielen:§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_GOAL_LEADS_TO_ENTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ZIEL|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANAGE_GOVERNMENT_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesetze ändern, Minister einstellen oder entlassen und Unternehmen mit der Forschung beauftragen. Die meisten Aktionen hier kosten §YPolitische Macht§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_JUSTIFY_WARGOAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§T$Besitzer|H$ rechtfertigt $TYPE|H$ Kriegsziel gegen $TARGET|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMEDACTIVITY_PROGRESS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: $FORTSCHRITT|1Y%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMEDACTIVITY_WARGOAL_PROGRESS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§T$TYPE|H$ Fortschritt: $FORTSCHRITT|1H%$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_STATES:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TYPE|H$ $STATES|H$ von $TARGET|H$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_PP_PROGRESS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritt ( £pol_power ): $CURRENT|H1$/$REQUIRED|H1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_PP_DAILY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Täglicher Anstieg ( £pol_power ): $PP|H1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_DAY_PROGRESS:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritt: $CURRENT|H1$/$REQUIRED|H1$ Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_FINISHED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Erwartetes Ende: $DATE|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_WARGOAL_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Wenn $OWNER|H$ die Rechtfertigung des Kriegsziels beendet hat, kann er $TARGET|H$§ den Krieg erklären!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOCUS_AT_WAR:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§$FRIEDEN|H0$ braucht Tage, um den Krieg zu beenden§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_MAINTAIN_COST:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME|Y$ gegen $TARGET|Y$: $COST|=+2$ $FREQUENCY$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_WINDOW_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$GRUPPE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_WINDOW_ADD:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle $GROUP|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_WINDOW_SWITCH:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersetze §Y$IDEA$?§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_WINDOW_CANNOT_SWITCH:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§RCannot replace $IDEA$!§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NATIONAL_SPIRIT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationaler Geist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NO_IDEAS_FOR_COUNTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dein Land hat keine $GROUP|H$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_NO_MORE_IDEAS_FOR_COUNTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dein Land hat keine andere $GROUP|H$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADD_IDEA_GROUP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideengruppe $GROUP|H$\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ONLY_IDEA_FOR_COUNTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$IDEA|H$ ist deine einzige $GROUP|H$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_TIMED_ACTIVITY_BOOST_PARTY_POPULARITY_DAILY_DRIFT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tägliche Drift: $VALUE|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_STAGE_COUP_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stufe Coup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUP_START_STATE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst den Staat wählen, von dem aus sich die Revolution ausbreiten wird. Wenn kein Zustand ausgewählt wird, wird der Ausgangszustand unter anderen Bedingungen bestimmt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_STAGE_COUP_STATE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbreitung der Umdrehung Wind von $STATE|H$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_STAGE_COUP_EQUIPMENT_ENTRY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$AUSRÜSTUNG$: $AKTUELL|0$/$GESAMT|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_STAGE_COUP_INVALIDATE:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n\n§HA-Putsch wird automatisch abgebrochen, wenn das Ziel in einen Bürgerkrieg gerät, zur angestrebten Ideologie wechselt oder sich der gleichen Fraktion anschließt.§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WEEKLY_CHANGE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wöchentliche Änderung:\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STABILITY_EFFECT_HEADER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HCurrently affected by:§!\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WAR_SUPPORT_EFFECT_HEADER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HCGegenwärtig betroffen von:§!\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation freigeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückkehr Territorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_STATES:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Wählt $COUNTRY|H$ in $LIST|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_STATES_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§GRight-click§! um zum ersten §HCore State§ zu gelangen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_STATES:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Rückt $LIST|H$ zu $COUNTRY|H$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REPLACE_IDEA:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersetze $IDEA$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_PAUSED_NO_POLITICAL_POWER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§RThis action is currently paused because of lack of Political Power§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADVISOR_NAME_PATTERN:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME$ $NACHNAME$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PARTY_AND_IDEOLOGY_GROUP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$PARTEI|H$ ($GRUPPE|H$)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_NOT_POSSIBLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TLiberating $COUNTRY|H$ in $LIST|H$§! is not possible:\n\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RELEASE_NATION_NOT_POSSIBLE_EMPTY:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TLiberating $COUNTRY|H$ is not possible:§!\n\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_NOT_POSSIBLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TRückgabe von $LIST|H$ an $COUNTRY|H$§! ist nicht möglich:\n\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_NOT_POSSIBLE_EMPTY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TRückgabe von Territorien an $COUNTRY|H$§! ist nicht möglich:\n\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_TERRITORY_NOT_POSSIBLE_AT_WAR:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie befinden sich im Krieg mit ihnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_STATES_NOT_POSSIBLE_NOT_CONTROLLED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Staaten in Rot werden nicht von Ihnen kontrolliert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN_STATES_NOT_POSSIBLE_NOT_OWNED:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du bist noch nicht im Besitz eines ihrer Territorien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_STAT_TRADE:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£resources_to_market_icon£ $VALUE|H0%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_IDEA_STAT_RECRUITABLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macht_Icon£ $WERT|=+1%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_COMPACT_POLITICAL_POWER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$pol_power$VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_COMPACT_ARMY_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£Armee_Erfahrung $VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_POLITICAL_POWER:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_ARMY_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten (£army_experience ): $WERT|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_NOT_AVAILABLE_ICON:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auslöser_Nr $WERT$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADVISOR_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMAND_POWER_ADVISOR_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nKosten (£command_power ): $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMAND_POWER_ALLOCATION_ADVISOR_COST:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nAllokiert (£command_power ): $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADVISOR_PP_COST_SHORT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£pol_power $WERT|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADVISOR_CP_COST_SHORT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befehlsstärke $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_ADVISOR_CP_ALLOCATION_COST_SHORT:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_AIR_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten (£air_experience ): $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_COMPACT_AIR_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufterfahrung $VALUE|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOPBAR_OFFICER_CORP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offizierskorps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOPBAR_OFFICER_CORP_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwalte Berater und Theoretiker, wähle deine Armee, Marine und Luftgeister und schalte Doktrinen frei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_NAVY_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten (£navy_experience ): $VALUE|-0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IDEA_COST_COMPACT_NAVY_XP:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Marine_Erfahrung $WERT|0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #Opinion modifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIT_anti_soviet_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antisowjetische Diplomatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIT_arrested_party_members:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verhaftete Parteimitglieder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIT_appease_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appeasement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> partitioned_poland_together:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilung Polens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> partitioned_poland_refused:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ablehnung der Teilung Polens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> refused_to_make_peace_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verweigerung des Friedensschlusses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> returned_vilnius_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückgabe von Vilnius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> refused_to_give_vilnius_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ablehnung der Abtretung von Vilnius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALTIC_investments:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltische Investitionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALTIC_trade:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investierte in den Ostseehandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> refused_baltic_entente_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verweigerte die Baltische Entente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fortified_memel:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festung Memelland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALTIC_reached_out:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplomatischer Einsatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALTIC_supported_fascism:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterstützte den baltischen Nationalismus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accepted_catholics:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akzeptierte die Katholiken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> annex_liberia_opinion:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annexion von Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigerte sich, Frieden zu schließen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ##### BICE #####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückkehr von Vilnius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dismal_enigma:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geheimdienstoffizier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investierte in den baltischen Handel</t>
   </si>
 </sst>
 </file>
@@ -37,6 +1222,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -58,6 +1244,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,12 +1289,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -143,7 +1334,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,2099 +1350,3353 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SUBGOAL_HEADER:0 "$NAME$ ($FARBE$$FORTSCHRITT|%0$§!):"</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v/>
+        <v> POLITICS_SUBGOAL_HEADER:0 "$NAME$ ($FARBE$$FORTSCHRITT|%0$§!):"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SUBGOAL:0 "Objektiv #$NUMBER$"</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v/>
+        <v> POLITICS_SUBGOAL:0 "Objektiv #$NUMBER$"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> ""</v>
+        <v> DRIFT_DIM_RETURN:0 "Trägheit der Partei: §R-$VAL$§!\n"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v/>
+        <v> DRIFT_DIM_RETURN:0 "Trägheit der Partei: §R-$VAL$§!\n"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> ""</v>
+        <v> POL_DAILY_CHANGE:0 "Tägliche Änderung: $VAL$"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v/>
+        <v> POL_DAILY_CHANGE:0 "Tägliche Änderung: $VAL$"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> ""</v>
+        <v> POL_OTHERS_DRIFT:0 "Aufgrund der Veränderungen bei anderen Parteien: $VAL$"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v/>
+        <v> POL_OTHERS_DRIFT:0 "Aufgrund der Veränderungen bei anderen Parteien: $VAL$"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NOELECTIONS:0 ""Keine Wahlen" #Wahlen deaktiviert"</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v/>
+        <v> POLITICS_NOELECTIONS:0 ""Keine Wahlen" #Wahlen deaktiviert"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NEXTELECTION:0 "Nächste Wahl"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v/>
+        <v> POLITICS_NEXTELECTION:0 "Nächste Wahl"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ELECTION_FREQUENCY:0 "Wahlen alle $MONATS|H$ Jahre."</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v/>
+        <v> POLITICS_ELECTION_FREQUENCY:0 "Wahlen alle $MONATS|H$ Jahre."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_HOLD_ELECTION:0 "Wahl abhalten in $COUNTRY$"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v/>
+        <v> POLITICS_HOLD_ELECTION:0 "Wahl abhalten in $COUNTRY$"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NEXT_ELECTION:0 "$DATUM$"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v/>
+        <v> POLITICS_NEXT_ELECTION:0 "$DATUM$"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ACTIVE_GOAL:0 "Aktives Ziel"</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v/>
+        <v> POLITICS_ACTIVE_GOAL:0 "Aktives Ziel"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_PARTY_NAME:0 "§H$KEY$ ($VAL$%)§!"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v/>
+        <v> POLITICS_PARTY_NAME:0 "§H$KEY$ ($VAL$%)§!"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEOLOGY:0 "§TPartei Ideologie: $IDEOLOGIE|H$§!"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v/>
+        <v> POLITICS_IDEOLOGY:0 "§TPartei Ideologie: $IDEOLOGIE|H$§!"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_LEADER:0 "§Parteiführer: $LEADER|H$§!"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v/>
+        <v> POLITICS_LEADER:0 "§Parteiführer: $LEADER|H$§!"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_POPULARITY:0 "§TPartei-Beliebtheit: §H$VALUE|2$%§!§!"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v/>
+        <v> POLITICS_POPULARITY:0 "§TPartei-Beliebtheit: §H$VALUE|2$%§!§!"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_POPULARITY_INCREASE_SPY:0 "$SPY|H$ erhöht die Popularität (§H$VALUE|2$%§! wöchentlich)"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v/>
+        <v> POLITICS_POPULARITY_INCREASE_SPY:0 "$SPY|H$ erhöht die Popularität (§H$VALUE|2$%§! wöchentlich)"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEOLOGY_POPULARITY_CHANGE:0 "£boost_popularity_texticon Veränderung der Popularität von $IDEOLOGY$: $VALUE|+2%$"</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v/>
+        <v> POLITICS_IDEOLOGY_POPULARITY_CHANGE:0 "£boost_popularity_texticon Veränderung der Popularität von $IDEOLOGY$: $VALUE|+2%$"</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SCORE:0 "§TTotal Score: $VALUE|0H$§!"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v/>
+        <v> POLITICS_SCORE:0 "§TTotal Score: $VALUE|0H$§!"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_WINDOW:0 "Regierung verwalten"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v/>
+        <v> POLITICS_IDEA_WINDOW:0 "Regierung verwalten"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADD_IDEA:0 "§GKlick um $GROUP|H$§ hinzuzufügen!"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v/>
+        <v> POLITICS_ADD_IDEA:0 "§GKlick um $GROUP|H$§ hinzuzufügen!"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_INVALID_IDEA_REMOVED:0 "§Ungültige Idee $IDEA|R$ Entfernt§!"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v/>
+        <v> POLITICS_INVALID_IDEA_REMOVED:0 "§Ungültige Idee $IDEA|R$ Entfernt§!"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_INVALID_IDEA_REMOVED_DESC:0 "Die Regierungsidee $IDEA|R$ wurde entfernt, weil ihre Voraussetzungen nicht mehr erfüllt sind."</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v/>
+        <v> POLITICS_INVALID_IDEA_REMOVED_DESC:0 "Die Regierungsidee $IDEA|R$ wurde entfernt, weil ihre Voraussetzungen nicht mehr erfüllt sind."</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> ""</v>
+        <v> ADVISOR_CANT_AFFORD_CP_REMOVED_TITLE:0 "§HAdvisor $ADVISOR|R$ Entfernt§!"</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v/>
+        <v> ADVISOR_CANT_AFFORD_CP_REMOVED_TITLE:0 "§HAdvisor $ADVISOR|R$ Entfernt§!"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> ""</v>
+        <v> ADVISOR_CANT_AFFORD_CP_REMOVED_DESC:0 "Wir können uns die Aufrechterhaltung der Befehlsgewalt von $ADVISOR$ nicht mehr leisten, und sie wurden aus dem aktiven Dienst entfernt."</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v/>
+        <v> ADVISOR_CANT_AFFORD_CP_REMOVED_DESC:0 "Wir können uns die Aufrechterhaltung der Befehlsgewalt von $ADVISOR$ nicht mehr leisten, und sie wurden aus dem aktiven Dienst entfernt."</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_INVALID_IDEA_REPLACED:0 "§HUngültige Idee $IDEA|R$ Ersetzt§!"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v/>
+        <v> POLITICS_INVALID_IDEA_REPLACED:0 "§HUngültige Idee $IDEA|R$ Ersetzt§!"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_INVALID_IDEA_REPLACED_DESC:0 "Die Voraussetzungen für die Regierungsidee $OLD_IDEA|R$ sind nicht mehr erfüllt, und sie wurde durch $NEW_IDEA|Y$ ersetzt."</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v/>
+        <v> POLITICS_INVALID_IDEA_REPLACED_DESC:0 "Die Voraussetzungen für die Regierungsidee $OLD_IDEA|R$ sind nicht mehr erfüllt, und sie wurde durch $NEW_IDEA|Y$ ersetzt."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REMOVE_IDEA_TILE:0 "Idee entfernen"</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v/>
+        <v> POLITICS_REMOVE_IDEA_TILE:0 "Idee entfernen"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REMOVE_IDEA_DESC:0 "Möchten Sie §Y$IDEA$§! für einen Preis von £pol_power $COST|-0$ entfernen?"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v/>
+        <v> POLITICS_REMOVE_IDEA_DESC:0 "Möchten Sie §Y$IDEA$§! für einen Preis von £pol_power $COST|-0$ entfernen?"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REPLACE_IDEA_TILE:0 "Ersetze Idee"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v/>
+        <v> POLITICS_REPLACE_IDEA_TILE:0 "Ersetze Idee"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REPLACE_IDEA_ARMY_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEE$§! durch §Y$NEUE_IDEE$§! ersetzen, mit Gesamtkosten von £army_experience $COST|-0$?"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v/>
+        <v> POLITICS_REPLACE_IDEA_ARMY_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEE$§! durch §Y$NEUE_IDEE$§! ersetzen, mit Gesamtkosten von £army_experience $COST|-0$?"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REPLACE_IDEA_NAVY_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen, so dass die Gesamtkosten £COST|-0$ für die Marineerfahrung betragen?"</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v/>
+        <v> POLITICS_REPLACE_IDEA_NAVY_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen, so dass die Gesamtkosten £COST|-0$ für die Marineerfahrung betragen?"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REPLACE_IDEA_AIR_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen für Gesamtkosten von £air_experience $COST|-0$?"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v/>
+        <v> POLITICS_REPLACE_IDEA_AIR_XP_DESC:0 "Möchten Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! ersetzen für Gesamtkosten von £air_experience $COST|-0$?"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_REPLACE_IDEA_POLITICAL_POWER_DESC:0 "Wollen Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! zu Gesamtkosten von £pol_power $COST|-0$ ersetzen?"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v/>
+        <v> POLITICS_REPLACE_IDEA_POLITICAL_POWER_DESC:0 "Wollen Sie §Y$ALTE_IDEA$§! durch §Y$NEUE_IDEA$§! zu Gesamtkosten von £pol_power $COST|-0$ ersetzen?"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> ""</v>
+        <v> CANT_TAKE_IDEAS:0 "§YDu kannst im Moment keine Minister zuweisen oder Gesetze ändern.§!\n§HCan't Assign Ideas:§!"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v/>
+        <v> CANT_TAKE_IDEAS:0 "§YDu kannst im Moment keine Minister zuweisen oder Gesetze ändern.§!\n§HCan't Assign Ideas:§!"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_COST:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v/>
+        <v> POLITICS_IDEA_COST:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_COST_COMPACT:1 "$WERT$"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v/>
+        <v> POLITICS_IDEA_COST_COMPACT:1 "$WERT$"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> ""</v>
+        <v> DECISION_COST_COMPACT:1 "£pol_power $VALUE|0$"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v/>
+        <v> DECISION_COST_COMPACT:1 "£pol_power $VALUE|0$"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_NOT_AVAILABLE_ICON:0 "£trigger_no $VALUE$"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v/>
+        <v> POLITICS_IDEA_NOT_AVAILABLE_ICON:0 "£trigger_no $VALUE$"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_REMOVE_COST:0 "Kosten für das Entfernen (£pol_power ): $VALUE|0$"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v/>
+        <v> POLITICS_IDEA_REMOVE_COST:0 "Kosten für das Entfernen (£pol_power ): $VALUE|0$"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_NO_REMOVE:0 "§RCannot remove.§!\n"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v/>
+        <v> POLITICS_IDEA_NO_REMOVE:0 "§RCannot remove.§!\n"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_CANCEL_DESC:0 "Wird abgebrochen, wenn:"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v/>
+        <v> POLITICS_IDEA_CANCEL_DESC:0 "Wird abgebrochen, wenn:"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_INSTANT_EFFECT:0 "Bei Auswahl:"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v/>
+        <v> POLITICS_GOAL_INSTANT_EFFECT:0 "Bei Auswahl:"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_OBJECTIVE:0 "§TObjectives:§!"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v/>
+        <v> POLITICS_GOAL_OBJECTIVE:0 "§TObjectives:§!"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_SUCCESS_REWARD:0 "\n§Nach Abschluss:§!"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v/>
+        <v> POLITICS_GOAL_SUCCESS_REWARD:0 "\n§Nach Abschluss:§!"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_NOREWARD:0 "§TNo effect.§!"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v/>
+        <v> POLITICS_GOAL_NOREWARD:0 "§TNo effect.§!"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NO_GOAL_SELECTED:0 "Kein Ziel"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v/>
+        <v> POLITICS_NO_GOAL_SELECTED:0 "Kein Ziel"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NO_GOAL_SELECTED_OWN:0 "Wählen Sie ein Ziel für Ihre Nation"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v/>
+        <v> POLITICS_NO_GOAL_SELECTED_OWN:0 "Wählen Sie ein Ziel für Ihre Nation"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SELECT_GOAL:0 "§Klicken Sie, um ein Ziel festzulegen§!"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v/>
+        <v> POLITICS_SELECT_GOAL:0 "§Klicken Sie, um ein Ziel festzulegen§!"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SELECT_GOAL_DESC:0 "Ein §YNationales Ziel§! ist so etwas wie ein Versprechen an die Nation.\n\n Die Wahl eines solchen Ziels kostet dich in der Regel §YPolitische Macht§!, aber du bekommst sie in der Regel zurück und noch mehr Belohnung, wenn du nachweisen kannst, dass du es erreichen konntest.\n\n Hier findest du sowohl große historische Unternehmungen als auch bescheidenere Wege zur Verbesserung deiner Nation."</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v/>
+        <v> POLITICS_SELECT_GOAL_DESC:0 "Ein §YNationales Ziel§! ist so etwas wie ein Versprechen an die Nation.\n\n Die Wahl eines solchen Ziels kostet dich in der Regel §YPolitische Macht§!, aber du bekommst sie in der Regel zurück und noch mehr Belohnung, wenn du nachweisen kannst, dass du es erreichen konntest.\n\n Hier findest du sowohl große historische Unternehmungen als auch bescheidenere Wege zur Verbesserung deiner Nation."</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_RESELECT_GOAL:0 "§Klick zum Entfernen von Goal§!"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v/>
+        <v> POLITICS_RESELECT_GOAL:0 "§Klick zum Entfernen von Goal§!"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_POLITICAL_POWER_INCREASE:0 "Machtveränderung: $WERT|2=+$ pro Tag.\n"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v/>
+        <v> POLITICS_POLITICAL_POWER_INCREASE:0 "Machtveränderung: $WERT|2=+$ pro Tag.\n"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> ""</v>
+        <v> POL_POWER_TOTAL_GAIN:0 "Gewinne gesamt $VAL|2=+$"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v/>
+        <v> POL_POWER_TOTAL_GAIN:0 "Gewinne gesamt $VAL|2=+$"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_COST:0 "Kosten (£pol_power ): $VALUE|0$"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v/>
+        <v> POLITICS_GOAL_COST:0 "Kosten (£pol_power ): $VALUE|0$"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_COST_COMPACT:0 "£pol_power $VALUE|0$"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v/>
+        <v> POLITICS_GOAL_COST_COMPACT:0 "£pol_power $VALUE|0$"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_SUCCEEDED:0 "Ziel erreicht!"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v/>
+        <v> POLITICS_GOAL_SUCCEEDED:0 "Ziel erreicht!"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_SUCCEEDED_DESC:0 "$NAME|H$"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v/>
+        <v> POLITICS_GOAL_SUCCEEDED_DESC:0 "$NAME|H$"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_FAILED:0 "Ziel verfehlt!"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v/>
+        <v> POLITICS_GOAL_FAILED:0 "Ziel verfehlt!"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_FAILED_DESC:0 "$NAME|R$"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v/>
+        <v> POLITICS_GOAL_FAILED_DESC:0 "$NAME|R$"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_NOTIFY_ALL:0 "Alle Länder werden benachrichtigt."</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v/>
+        <v> POLITICS_GOAL_NOTIFY_ALL:0 "Alle Länder werden benachrichtigt."</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_NOTIFY_TARGET:0 "Wird das Zielland benachrichtigen."</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v/>
+        <v> POLITICS_GOAL_NOTIFY_TARGET:0 "Wird das Zielland benachrichtigen."</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_NOTIFY_FACTION:0 "Benachrichtigt deine Fraktion."</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v/>
+        <v> POLITICS_GOAL_NOTIFY_FACTION:0 "Benachrichtigt deine Fraktion."</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_NOTIFY_ALLIES:0 "Wird deine Verbündeten benachrichtigen."</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v/>
+        <v> POLITICS_GOAL_NOTIFY_ALLIES:0 "Wird deine Verbündeten benachrichtigen."</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_WARGOAL_INSTANT:0 "Wird sofort nach der Vorbereitung zum Kriegsziel."</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v/>
+        <v> POLITICS_WARGOAL_INSTANT:0 "Wird sofort nach der Vorbereitung zum Kriegsziel."</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_WARGOAL_DELAYED:0 "Wird zum Kriegsziel, wenn $PROGRESS|Y0%$ Fortschritt erreicht ist."</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v/>
+        <v> POLITICS_WARGOAL_DELAYED:0 "Wird zum Kriegsziel, wenn $PROGRESS|Y0%$ Fortschritt erreicht ist."</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_WARGOAL_UNLOCK:0 "Entriegelt Kriegsziel $NAME|Y$"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v/>
+        <v> POLITICS_WARGOAL_UNLOCK:0 "Entriegelt Kriegsziel $NAME|Y$"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GRACE_PERIOD_DAYS:0 " nach $DAYS|Y$ Tagen."</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v/>
+        <v> POLITICS_GRACE_PERIOD_DAYS:0 " nach $DAYS|Y$ Tagen."</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GRACE_PERIOD_END:0 "Vorbereiten bis: $DATE|Y$."</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v/>
+        <v> POLITICS_GRACE_PERIOD_END:0 "Vorbereiten bis: $DATE|Y$."</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_EXPIRE_TIME:0 "Läuft ab nach: $TIME|Y$ Tagen."</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v/>
+        <v> POLITICS_EXPIRE_TIME:0 "Läuft ab nach: $TIME|Y$ Tagen."</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_SUCCESS_PROGRESS:0 "Erfolg des Ziels bei: $PROGRESS|Y%0$"</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v/>
+        <v> POLITICS_SUCCESS_PROGRESS:0 "Erfolg des Ziels bei: $PROGRESS|Y%0$"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICAL_POLITICAL:0 "Politisch"</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v/>
+        <v> POLITICAL_POLITICAL:0 "Politisch"</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> ""</v>
+        <v> MANAGE_OCCUPIED_TERRITORIES:2 "Besetzte Territorien"</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v/>
+        <v> MANAGE_OCCUPIED_TERRITORIES:2 "Besetzte Territorien"</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> ""</v>
+        <v> MANAGE_SUBJECTS:0 "Verwalten von Subjekten"</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v/>
+        <v> MANAGE_SUBJECTS:0 "Verwalten von Subjekten"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> ""</v>
+        <v> manage_occupied_territories_no_occupation:0 "§Sie besetzen im Moment kein Nicht-Kerngebiet!"</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v/>
+        <v> manage_occupied_territories_no_occupation:0 "§Sie besetzen im Moment kein Nicht-Kerngebiet!"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> ""</v>
+        <v> MANAGE_OCCUPIED_TERRITORIES_HEADER:0 "Fremdes Territorium"</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v/>
+        <v> MANAGE_OCCUPIED_TERRITORIES_HEADER:0 "Fremdes Territorium"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> ""</v>
+        <v> MANAGE_EXILED_GOVERNMENTS:0 "Exilregierungen"</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v/>
+        <v> MANAGE_EXILED_GOVERNMENTS:0 "Exilregierungen"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> ""</v>
+        <v> SHOW_EXILED_STATUS:0 "Exil-Status"</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v/>
+        <v> SHOW_EXILED_STATUS:0 "Exil-Status"</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> ""</v>
+        <v> SHOW_COLLABORATIONS:0 "Kollaborationen"</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v/>
+        <v> SHOW_COLLABORATIONS:0 "Kollaborationen"</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> ""</v>
+        <v> SHOW_EXILED_COLLABORATORS:0 "Exil/Kollaborateure"</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v/>
+        <v> SHOW_EXILED_COLLABORATORS:0 "Exil/Kollaborateure"</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICAL_RESEARCH_BONUS_ENTRY:2 "$KATEGORIE$: $FAKTOR|=+0%$"</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v/>
+        <v> POLITICAL_RESEARCH_BONUS_ENTRY:2 "$KATEGORIE$: $FAKTOR|=+0%$"</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICAL_EQUIPMENT_TYPE_BONUS_ENTRY:0 "$ARCHETYPE$:"</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v/>
+        <v> POLITICAL_EQUIPMENT_TYPE_BONUS_ENTRY:0 "$ARCHETYPE$:"</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_SUB_CATEGORY_LIMIT:0 "§Dürfen nur eine§ haben!"</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v/>
+        <v> IDEA_SUB_CATEGORY_LIMIT:0 "§Dürfen nur eine§ haben!"</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> ""</v>
+        <v> country_idea_desc:0 "Ideen, die unser Land motivieren und leiten."</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v/>
+        <v> country_idea_desc:0 "Ideen, die unser Land motivieren und leiten."</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> ""</v>
+        <v> political_idea_desc:0 "Ideen, die derzeit die politische Landschaft beherrschen."</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v/>
+        <v> political_idea_desc:0 "Ideen, die derzeit die politische Landschaft beherrschen."</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> ""</v>
+        <v> military_idea_desc:0 "Ideen darüber, wie die Armee des Landes funktionieren sollte."</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v/>
+        <v> military_idea_desc:0 "Ideen darüber, wie die Armee des Landes funktionieren sollte."</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> ""</v>
+        <v> economic_idea_desc:0 "Ideen, um die Wirtschaft des Landes auf den Krieg vorzubereiten."</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
-        <v/>
+        <v> economic_idea_desc:0 "Ideen, um die Wirtschaft des Landes auf den Krieg vorzubereiten."</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> ""</v>
+        <v> technology_idea_desc:0 "Ideen zur Unterstützung des technologischen Fortschritts."</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v/>
+        <v> technology_idea_desc:0 "Ideen zur Unterstützung des technologischen Fortschritts."</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> ""</v>
+        <v> espionage_idea_desc:0 "Ideen darüber, wie unser Land Spionage betreibt."</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v/>
+        <v> espionage_idea_desc:0 "Ideen darüber, wie unser Land Spionage betreibt."</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> ""</v>
+        <v> country:0 "Land"</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v/>
+        <v> country:0 "Land"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> ""</v>
+        <v> political:0 "Politisch"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v/>
+        <v> political:0 "Politisch"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> ""</v>
+        <v> military:0 "Militärisch"</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v/>
+        <v> military:0 "Militärisch"</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> ""</v>
+        <v> economic:0 "Wirtschaftlich"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v/>
+        <v> economic:0 "Wirtschaftlich"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> ""</v>
+        <v> technology:0 "Technik"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v/>
+        <v> technology:0 "Technik"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> ""</v>
+        <v> espionage:0 "Spionage"</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v/>
+        <v> espionage:0 "Spionage"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> ""</v>
+        <v> UNITY_WEEKLY_TOTAL_CHANGE:0 "Wöchentliche Veränderung: $VAL$"</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v/>
+        <v> UNITY_WEEKLY_TOTAL_CHANGE:0 "Wöchentliche Veränderung: $VAL$"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> ""</v>
+        <v> STABILITY_WEEKLY_TOTAL_CHANGE:0 "\nWöchentliche Veränderung: $VAL$"</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v/>
+        <v> STABILITY_WEEKLY_TOTAL_CHANGE:0 "\nWöchentliche Veränderung: $VAL$"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> ""</v>
+        <v> WAR_SUPPORT_WEEKLY_TOTAL_CHANGE:0 "\nWöchentliche Veränderung: $VAL$"</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v/>
+        <v> WAR_SUPPORT_WEEKLY_TOTAL_CHANGE:0 "\nWöchentliche Veränderung: $VAL$"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> ""</v>
+        <v> OCCUPATION_POLICY:0 "Berufspolitik"</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v/>
+        <v> OCCUPATION_POLICY:0 "Berufspolitik"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_TITLE:0 "Nation befreien"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v/>
+        <v> RELEASE_NATION_TITLE:0 "Nation befreien"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_DESC:0 "Willst du $COUNTRY|H$ in $LIST|H$ befreien?"</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v/>
+        <v> RELEASE_NATION_DESC:0 "Willst du $COUNTRY|H$ in $LIST|H$ befreien?"</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_TITLE:0 "Gebiet zurückgeben"</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v/>
+        <v> RETURN_TERRITORY_TITLE:0 "Gebiet zurückgeben"</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_DESC:0 "Wollen Sie $LIST|H$ an $COUNTRY|H$ zurückgeben?"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v/>
+        <v> RETURN_TERRITORY_DESC:0 "Wollen Sie $LIST|H$ an $COUNTRY|H$ zurückgeben?"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> ""</v>
+        <v> manage_occupied_territories:0 "§Klicken Sie, um Ihre besetzten Gebiete zu verwalten!"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v/>
+        <v> manage_occupied_territories:0 "§Klicken Sie, um Ihre besetzten Gebiete zu verwalten!"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> ""</v>
+        <v> manage_occupied_territories_empty:0 "§Sie haben keine besetzten Gebiete zu verwalten!"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v/>
+        <v> manage_occupied_territories_empty:0 "§Sie haben keine besetzten Gebiete zu verwalten!"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> ""</v>
+        <v> manage_occupied_territories_puppet:0 "§Sie benötigen einen höheren Autonomiestatus, um Länder freizugeben!"</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v/>
+        <v> manage_occupied_territories_puppet:0 "§Sie benötigen einen höheren Autonomiestatus, um Länder freizugeben!"</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> ""</v>
+        <v> manage_occupied_territories_desc:0 "§Sie können Besetzungsrichtlinien festlegen und Länder freigeben, die Kerne in Ihren besetzten Gebieten haben.§!"</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v/>
+        <v> manage_occupied_territories_desc:0 "§Sie können Besetzungsrichtlinien festlegen und Länder freigeben, die Kerne in Ihren besetzten Gebieten haben.§!"</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> ""</v>
+        <v> not_releaseable:0 "§RNeines deiner Gebiete ist ein Kern von $COUNTRY|H$§!"</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v/>
+        <v> not_releaseable:0 "§RNeines deiner Gebiete ist ein Kern von $COUNTRY|H$§!"</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> ""</v>
+        <v> REMOVE_GOAL_TITLE:0 "Ziel entfernen"</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v/>
+        <v> REMOVE_GOAL_TITLE:0 "Ziel entfernen"</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> ""</v>
+        <v> REMOVE_GOAL_DESC:0 "Möchten Sie $GOAL|H$ entfernen?"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v/>
+        <v> REMOVE_GOAL_DESC:0 "Möchten Sie $GOAL|H$ entfernen?"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> ""</v>
+        <v> REPLACE_GOAL_TITLE:0 "Ersetze Ziel"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v/>
+        <v> REPLACE_GOAL_TITLE:0 "Ersetze Ziel"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> ""</v>
+        <v> REPLACE_GOAL_DESC:0 "Willst du $OLD|H$ durch $NEW|H$ ersetzen?"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v/>
+        <v> REPLACE_GOAL_DESC:0 "Willst du $OLD|H$ durch $NEW|H$ ersetzen?"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> ""</v>
+        <v> CHANGE_IDEA:0 "§GKlick um $IDEA|H$§ zu ändern!"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v/>
+        <v> CHANGE_IDEA:0 "§GKlick um $IDEA|H$§ zu ändern!"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> ""</v>
+        <v> REMOVE_IDEA:1 "§GKlicken Sie, um $IDEA|H$§ zu entfernen!"</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v/>
+        <v> REMOVE_IDEA:1 "§GKlicken Sie, um $IDEA|H$§ zu entfernen!"</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> ""</v>
+        <v> REMOVE_IDEA_POLITICAL_POWER:0 "§Du hast nicht genug §HPolitische Macht§! um diese Idee zu entfernen.\nKosten zum Entfernen (£pol_power ): $VALUE|0$§!"</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v/>
+        <v> REMOVE_IDEA_POLITICAL_POWER:0 "§Du hast nicht genug §HPolitische Macht§! um diese Idee zu entfernen.\nKosten zum Entfernen (£pol_power ): $VALUE|0$§!"</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> ""</v>
+        <v> REMOVE_IDEA_ARMY_XP:0 "§Sie haben nicht genug §HArmy XP§! um diese Idee zu entfernen.\nCost to remove (£pol_power ): $WERT|0$§!"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v/>
+        <v> REMOVE_IDEA_ARMY_XP:0 "§Sie haben nicht genug §HArmy XP§! um diese Idee zu entfernen.\nCost to remove (£pol_power ): $WERT|0$§!"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_LEADS_TO:0 "§Führt zu zukünftigen Zielen:§!"</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v/>
+        <v> POLITICS_GOAL_LEADS_TO:0 "§Führt zu zukünftigen Zielen:§!"</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_GOAL_LEADS_TO_ENTRY:0 "$ZIEL|Y$"</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v/>
+        <v> POLITICS_GOAL_LEADS_TO_ENTRY:0 "$ZIEL|Y$"</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> ""</v>
+        <v> MANAGE_GOVERNMENT_DESC:0 "Gesetze ändern, Minister einstellen oder entlassen und Unternehmen mit der Forschung beauftragen. Die meisten Aktionen hier kosten §YPolitische Macht§!"</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v/>
+        <v> MANAGE_GOVERNMENT_DESC:0 "Gesetze ändern, Minister einstellen oder entlassen und Unternehmen mit der Forschung beauftragen. Die meisten Aktionen hier kosten §YPolitische Macht§!"</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_JUSTIFY_WARGOAL:0 "§T$Besitzer|H$ rechtfertigt $TYPE|H$ Kriegsziel gegen $TARGET|H$§!"</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v/>
+        <v> POLITICS_JUSTIFY_WARGOAL:0 "§T$Besitzer|H$ rechtfertigt $TYPE|H$ Kriegsziel gegen $TARGET|H$§!"</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMEDACTIVITY_PROGRESS:0 ": $FORTSCHRITT|1Y%$"</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v/>
+        <v> POLITICS_TIMEDACTIVITY_PROGRESS:0 ": $FORTSCHRITT|1Y%$"</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMEDACTIVITY_WARGOAL_PROGRESS:0 "§T$TYPE|H$ Fortschritt: $FORTSCHRITT|1H%$§!"</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v/>
+        <v> POLITICS_TIMEDACTIVITY_WARGOAL_PROGRESS:0 "§T$TYPE|H$ Fortschritt: $FORTSCHRITT|1H%$§!"</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_STATES:0 "$TYPE|H$ $STATES|H$ von $TARGET|H$"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_STATES:0 "$TYPE|H$ $STATES|H$ von $TARGET|H$"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_PP_PROGRESS:0 "Fortschritt ( £pol_power ): $CURRENT|H1$/$REQUIRED|H1$"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_PP_PROGRESS:0 "Fortschritt ( £pol_power ): $CURRENT|H1$/$REQUIRED|H1$"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_PP_DAILY:0 "Täglicher Anstieg ( £pol_power ): $PP|H1$"</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_PP_DAILY:0 "Täglicher Anstieg ( £pol_power ): $PP|H1$"</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_DAY_PROGRESS:0 "Fortschritt: $CURRENT|H1$/$REQUIRED|H1$ Tage"</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_DAY_PROGRESS:0 "Fortschritt: $CURRENT|H1$/$REQUIRED|H1$ Tage"</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_FINISHED:0 "§Erwartetes Ende: $DATE|H$§!"</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_FINISHED:0 "§Erwartetes Ende: $DATE|H$§!"</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_WARGOAL_DESC:0 "§Wenn $OWNER|H$ die Rechtfertigung des Kriegsziels beendet hat, kann er $TARGET|H$§ den Krieg erklären!"</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_WARGOAL_DESC:0 "§Wenn $OWNER|H$ die Rechtfertigung des Kriegsziels beendet hat, kann er $TARGET|H$§ den Krieg erklären!"</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> ""</v>
+        <v> FOCUS_AT_WAR:0 "§$FRIEDEN|H0$ braucht Tage, um den Krieg zu beenden§!"</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v/>
+        <v> FOCUS_AT_WAR:0 "§$FRIEDEN|H0$ braucht Tage, um den Krieg zu beenden§!"</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_MAINTAIN_COST:1 "$NAME|Y$ gegen $TARGET|Y$: $COST|=+2$ $FREQUENCY$"</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_MAINTAIN_COST:1 "$NAME|Y$ gegen $TARGET|Y$: $COST|=+2$ $FREQUENCY$"</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_WINDOW_TITLE:0 "$GRUPPE$"</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v/>
+        <v> IDEA_WINDOW_TITLE:0 "$GRUPPE$"</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_WINDOW_ADD:0 "Wähle $GROUP|Y$"</v>
       </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
-        <v/>
+        <v> IDEA_WINDOW_ADD:0 "Wähle $GROUP|Y$"</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_WINDOW_SWITCH:0 "Ersetze §Y$IDEA$?§!"</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v/>
+        <v> IDEA_WINDOW_SWITCH:0 "Ersetze §Y$IDEA$?§!"</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_WINDOW_CANNOT_SWITCH:0 "§RCannot replace $IDEA$!§!"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v/>
+        <v> IDEA_WINDOW_CANNOT_SWITCH:0 "§RCannot replace $IDEA$!§!"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NATIONAL_SPIRIT:0 "Nationaler Geist"</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v/>
+        <v> POLITICS_NATIONAL_SPIRIT:0 "Nationaler Geist"</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NO_IDEAS_FOR_COUNTRY:0 "Dein Land hat keine $GROUP|H$"</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v/>
+        <v> POLITICS_NO_IDEAS_FOR_COUNTRY:0 "Dein Land hat keine $GROUP|H$"</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_NO_MORE_IDEAS_FOR_COUNTRY:0 "Dein Land hat keine andere $GROUP|H$"</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v/>
+        <v> POLITICS_NO_MORE_IDEAS_FOR_COUNTRY:0 "Dein Land hat keine andere $GROUP|H$"</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADD_IDEA_GROUP:0 "Ideengruppe $GROUP|H$\n"</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v/>
+        <v> POLITICS_ADD_IDEA_GROUP:0 "Ideengruppe $GROUP|H$\n"</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ONLY_IDEA_FOR_COUNTRY:0 "$IDEA|H$ ist deine einzige $GROUP|H$"</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v/>
+        <v> POLITICS_ONLY_IDEA_FOR_COUNTRY:0 "$IDEA|H$ ist deine einzige $GROUP|H$"</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_TIMED_ACTIVITY_BOOST_PARTY_POPULARITY_DAILY_DRIFT:0 "Tägliche Drift: $VALUE|Y$"</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v/>
+        <v> POLITICS_TIMED_ACTIVITY_BOOST_PARTY_POPULARITY_DAILY_DRIFT:0 "Tägliche Drift: $VALUE|Y$"</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_STAGE_COUP_TITLE:0 "Stufe Coup"</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v/>
+        <v> POLITICS_STAGE_COUP_TITLE:0 "Stufe Coup"</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> ""</v>
+        <v> COUP_START_STATE:0 "Du kannst den Staat wählen, von dem aus sich die Revolution ausbreiten wird. Wenn kein Zustand ausgewählt wird, wird der Ausgangszustand unter anderen Bedingungen bestimmt."</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v/>
+        <v> COUP_START_STATE:0 "Du kannst den Staat wählen, von dem aus sich die Revolution ausbreiten wird. Wenn kein Zustand ausgewählt wird, wird der Ausgangszustand unter anderen Bedingungen bestimmt."</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_STAGE_COUP_STATE:0 "Ausbreitung der Umdrehung Wind von $STATE|H$."</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v/>
+        <v> POLITICS_STAGE_COUP_STATE:0 "Ausbreitung der Umdrehung Wind von $STATE|H$."</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_STAGE_COUP_EQUIPMENT_ENTRY:0 "$AUSRÜSTUNG$: $AKTUELL|0$/$GESAMT|0$"</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v/>
+        <v> POLITICS_STAGE_COUP_EQUIPMENT_ENTRY:0 "$AUSRÜSTUNG$: $AKTUELL|0$/$GESAMT|0$"</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_STAGE_COUP_INVALIDATE:1 "\n\n§HA-Putsch wird automatisch abgebrochen, wenn das Ziel in einen Bürgerkrieg gerät, zur angestrebten Ideologie wechselt oder sich der gleichen Fraktion anschließt.§!"</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v/>
+        <v> POLITICS_STAGE_COUP_INVALIDATE:1 "\n\n§HA-Putsch wird automatisch abgebrochen, wenn das Ziel in einen Bürgerkrieg gerät, zur angestrebten Ideologie wechselt oder sich der gleichen Fraktion anschließt.§!"</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> ""</v>
+        <v> WEEKLY_CHANGE:0 "Wöchentliche Änderung:\n"</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v/>
+        <v> WEEKLY_CHANGE:0 "Wöchentliche Änderung:\n"</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> ""</v>
+        <v> STABILITY_EFFECT_HEADER:0 "§HCurrently affected by:§!\n"</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v/>
+        <v> STABILITY_EFFECT_HEADER:0 "§HCurrently affected by:§!\n"</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> ""</v>
+        <v> WAR_SUPPORT_EFFECT_HEADER:0 "§HCGegenwärtig betroffen von:§!\n"</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
-        <v/>
+        <v> WAR_SUPPORT_EFFECT_HEADER:0 "§HCGegenwärtig betroffen von:§!\n"</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION:1 "Nation freigeben"</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v/>
+        <v> RELEASE_NATION:1 "Nation freigeben"</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY:1 "Rückkehr Territorium"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v/>
+        <v> RETURN_TERRITORY:1 "Rückkehr Territorium"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_STATES:0 "§Wählt $COUNTRY|H$ in $LIST|H$§!"</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v/>
+        <v> RELEASE_NATION_STATES:0 "§Wählt $COUNTRY|H$ in $LIST|H$§!"</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_STATES_DESC:0 "§GRight-click§! um zum ersten §HCore State§ zu gelangen!"</v>
       </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
-        <v/>
+        <v> RELEASE_NATION_STATES_DESC:0 "§GRight-click§! um zum ersten §HCore State§ zu gelangen!"</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_STATES:0 "§Rückt $LIST|H$ zu $COUNTRY|H$§!"</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v/>
+        <v> RETURN_TERRITORY_STATES:0 "§Rückt $LIST|H$ zu $COUNTRY|H$§!"</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> ""</v>
+        <v> REPLACE_IDEA:0 "Ersetze $IDEA$"</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v/>
+        <v> REPLACE_IDEA:0 "Ersetze $IDEA$"</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_PAUSED_NO_POLITICAL_POWER:0 "§RThis action is currently paused because of lack of Political Power§!"</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v/>
+        <v> POLITICS_PAUSED_NO_POLITICAL_POWER:0 "§RThis action is currently paused because of lack of Political Power§!"</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADVISOR_NAME_PATTERN:0 "$NAME$ $NACHNAME$"</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v/>
+        <v> POLITICS_ADVISOR_NAME_PATTERN:0 "$NAME$ $NACHNAME$"</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> ""</v>
+        <v> PARTY_AND_IDEOLOGY_GROUP:0 "$PARTEI|H$ ($GRUPPE|H$)"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v/>
+        <v> PARTY_AND_IDEOLOGY_GROUP:0 "$PARTEI|H$ ($GRUPPE|H$)"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_NOT_POSSIBLE:0 "§TLiberating $COUNTRY|H$ in $LIST|H$§! is not possible:\n\n"</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v/>
+        <v> RELEASE_NATION_NOT_POSSIBLE:0 "§TLiberating $COUNTRY|H$ in $LIST|H$§! is not possible:\n\n"</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> ""</v>
+        <v> RELEASE_NATION_NOT_POSSIBLE_EMPTY:1 "§TLiberating $COUNTRY|H$ is not possible:§!\n\n"</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v/>
+        <v> RELEASE_NATION_NOT_POSSIBLE_EMPTY:1 "§TLiberating $COUNTRY|H$ is not possible:§!\n\n"</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE:0 "§TRückgabe von $LIST|H$ an $COUNTRY|H$§! ist nicht möglich:\n\n"</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v/>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE:0 "§TRückgabe von $LIST|H$ an $COUNTRY|H$§! ist nicht möglich:\n\n"</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE_EMPTY:0 "§TRückgabe von Territorien an $COUNTRY|H$§! ist nicht möglich:\n\n"</v>
       </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
-        <v/>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE_EMPTY:0 "§TRückgabe von Territorien an $COUNTRY|H$§! ist nicht möglich:\n\n"</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE_AT_WAR:0 "Sie befinden sich im Krieg mit ihnen."</v>
       </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
-        <v/>
+        <v> RETURN_TERRITORY_NOT_POSSIBLE_AT_WAR:0 "Sie befinden sich im Krieg mit ihnen."</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_STATES_NOT_POSSIBLE_NOT_CONTROLLED:0 "Die Staaten in Rot werden nicht von Ihnen kontrolliert."</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v/>
+        <v> RETURN_STATES_NOT_POSSIBLE_NOT_CONTROLLED:0 "Die Staaten in Rot werden nicht von Ihnen kontrolliert."</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> ""</v>
+        <v> RETURN_STATES_NOT_POSSIBLE_NOT_OWNED:0 "Du bist noch nicht im Besitz eines ihrer Territorien."</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v/>
+        <v> RETURN_STATES_NOT_POSSIBLE_NOT_OWNED:0 "Du bist noch nicht im Besitz eines ihrer Territorien."</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_STAT_TRADE:1 "£resources_to_market_icon£ $VALUE|H0%$"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v/>
+        <v> POLITICS_IDEA_STAT_TRADE:1 "£resources_to_market_icon£ $VALUE|H0%$"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_IDEA_STAT_RECRUITABLE:0 "Macht_Icon£ $WERT|=+1%$"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v/>
+        <v> POLITICS_IDEA_STAT_RECRUITABLE:0 "Macht_Icon£ $WERT|=+1%$"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_COMPACT_POLITICAL_POWER:0 "$pol_power$VALUE|0$"</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v/>
+        <v> IDEA_COST_COMPACT_POLITICAL_POWER:0 "$pol_power$VALUE|0$"</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_COMPACT_ARMY_XP:0 "£Armee_Erfahrung $VALUE|0$"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v/>
+        <v> IDEA_COST_COMPACT_ARMY_XP:0 "£Armee_Erfahrung $VALUE|0$"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_POLITICAL_POWER:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v/>
+        <v> IDEA_COST_POLITICAL_POWER:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_ARMY_XP:0 "Kosten (£army_experience ): $WERT|-0$"</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v/>
+        <v> IDEA_COST_ARMY_XP:0 "Kosten (£army_experience ): $WERT|-0$"</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_NOT_AVAILABLE_ICON:0 "Auslöser_Nr $WERT$"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v/>
+        <v> IDEA_NOT_AVAILABLE_ICON:0 "Auslöser_Nr $WERT$"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADVISOR_COST:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v/>
+        <v> POLITICS_ADVISOR_COST:0 "Kosten (£pol_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> ""</v>
+        <v> COMMAND_POWER_ADVISOR_COST:0 "\nKosten (£command_power ): $VALUE|-0$"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v/>
+        <v> COMMAND_POWER_ADVISOR_COST:0 "\nKosten (£command_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> ""</v>
+        <v> COMMAND_POWER_ALLOCATION_ADVISOR_COST:0 "\nAllokiert (£command_power ): $VALUE|-0$"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v/>
+        <v> COMMAND_POWER_ALLOCATION_ADVISOR_COST:0 "\nAllokiert (£command_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADVISOR_PP_COST_SHORT:0 "£pol_power $WERT|-0$"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v/>
+        <v> POLITICS_ADVISOR_PP_COST_SHORT:0 "£pol_power $WERT|-0$"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADVISOR_CP_COST_SHORT:0 "Befehlsstärke $VALUE|-0$"</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v/>
+        <v> POLITICS_ADVISOR_CP_COST_SHORT:0 "Befehlsstärke $VALUE|-0$"</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> ""</v>
+        <v> POLITICS_ADVISOR_CP_ALLOCATION_COST_SHORT:0 "Befehlsstärke $VALUE|-0$"</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v/>
+        <v> POLITICS_ADVISOR_CP_ALLOCATION_COST_SHORT:0 "Befehlsstärke $VALUE|-0$"</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_AIR_XP:0 "Kosten (£air_experience ): $VALUE|-0$"</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v/>
+        <v> IDEA_COST_AIR_XP:0 "Kosten (£air_experience ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_COMPACT_AIR_XP:0 "Lufterfahrung $VALUE|0$"</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v/>
+        <v> IDEA_COST_COMPACT_AIR_XP:0 "Lufterfahrung $VALUE|0$"</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> ""</v>
+        <v> TOPBAR_OFFICER_CORP:0 "Offizierskorps"</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v/>
+        <v> TOPBAR_OFFICER_CORP:0 "Offizierskorps"</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> ""</v>
+        <v> TOPBAR_OFFICER_CORP_DESC:0 "Verwalte Berater und Theoretiker, wähle deine Armee, Marine und Luftgeister und schalte Doktrinen frei."</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v/>
+        <v> TOPBAR_OFFICER_CORP_DESC:0 "Verwalte Berater und Theoretiker, wähle deine Armee, Marine und Luftgeister und schalte Doktrinen frei."</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_NAVY_XP:0 "Kosten (£navy_experience ): $VALUE|-0$"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v/>
+        <v> IDEA_COST_NAVY_XP:0 "Kosten (£navy_experience ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> ""</v>
+        <v> IDEA_COST_COMPACT_NAVY_XP:0 "$Marine_Erfahrung $WERT|0$"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v/>
+        <v> IDEA_COST_COMPACT_NAVY_XP:0 "$Marine_Erfahrung $WERT|0$"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> ""</v>
+        <v>  #Opinion modifiers "\nKosten (£command_power ): $VALUE|-0$"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v/>
+        <v>  #Opinion modifiers "\nKosten (£command_power ): $VALUE|-0$"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> ""</v>
+        <v> LIT_anti_soviet_opinion:0 "Antisowjetische Diplomatie"</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v/>
+        <v> LIT_anti_soviet_opinion:0 "Antisowjetische Diplomatie"</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> ""</v>
+        <v> LIT_arrested_party_members:0 "Verhaftete Parteimitglieder"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v/>
+        <v> LIT_arrested_party_members:0 "Verhaftete Parteimitglieder"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> ""</v>
+        <v> LIT_appease_opinion:0 "Appeasement"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v/>
+        <v> LIT_appease_opinion:0 "Appeasement"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> ""</v>
+        <v> partitioned_poland_together:0 "Teilung Polens"</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v/>
+        <v> partitioned_poland_together:0 "Teilung Polens"</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> ""</v>
+        <v> partitioned_poland_refused:0 "Ablehnung der Teilung Polens"</v>
       </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v/>
+        <v> partitioned_poland_refused:0 "Ablehnung der Teilung Polens"</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> ""</v>
+        <v> refused_to_make_peace_opinion:0 "Verweigerung des Friedensschlusses"</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v/>
+        <v> refused_to_make_peace_opinion:0 "Verweigerung des Friedensschlusses"</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> ""</v>
+        <v> returned_vilnius_opinion:0 "Rückgabe von Vilnius"</v>
       </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v/>
+        <v> returned_vilnius_opinion:0 "Rückgabe von Vilnius"</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> ""</v>
+        <v> refused_to_give_vilnius_opinion:0 "Ablehnung der Abtretung von Vilnius"</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v/>
+        <v> refused_to_give_vilnius_opinion:0 "Ablehnung der Abtretung von Vilnius"</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_investments:0 "Baltische Investitionen"</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v/>
+        <v> BALTIC_investments:0 "Baltische Investitionen"</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_trade:0 "Investierte in den Ostseehandel"</v>
       </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v/>
+        <v> BALTIC_trade:0 "Investierte in den Ostseehandel"</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> ""</v>
+        <v> refused_baltic_entente_opinion:0 "Verweigerte die Baltische Entente"</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v/>
+        <v> refused_baltic_entente_opinion:0 "Verweigerte die Baltische Entente"</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> ""</v>
+        <v> fortified_memel:0 "Festung Memelland"</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v/>
+        <v> fortified_memel:0 "Festung Memelland"</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_reached_out:0 "Diplomatischer Einsatz"</v>
       </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v/>
+        <v> BALTIC_reached_out:0 "Diplomatischer Einsatz"</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C197" s="1" t="str">
         <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_supported_fascism:0 "Unterstützte den baltischen Nationalismus"</v>
       </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
-        <v/>
+        <v> BALTIC_supported_fascism:0 "Unterstützte den baltischen Nationalismus"</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> ""</v>
+        <v> accepted_catholics:0 "Akzeptierte die Katholiken"</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v/>
+        <v> accepted_catholics:0 "Akzeptierte die Katholiken"</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C199" s="1" t="str">
         <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v> ""</v>
+        <v> annex_liberia_opinion:0 "Annexion von Liberia"</v>
       </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
-        <v/>
+        <v> annex_liberia_opinion:0 "Annexion von Liberia"</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C200" s="1" t="str">
         <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v> ""</v>
+        <v> refused_to_make_peace_opinion:0 "Weigerte sich, Frieden zu schließen"</v>
       </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
-        <v/>
+        <v> refused_to_make_peace_opinion:0 "Weigerte sich, Frieden zu schließen"</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C201" s="1" t="str">
         <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v> ""</v>
+        <v> ##### BICE ##### "Rückkehr von Vilnius"</v>
       </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
-        <v/>
+        <v> ##### BICE ##### "Rückkehr von Vilnius"</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C202" s="1" t="str">
         <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v> ""</v>
+        <v> dismal_enigma:0 "Geheimdienstoffizier"</v>
       </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
-        <v/>
+        <v> dismal_enigma:0 "Geheimdienstoffizier"</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="C203" s="1" t="str">
         <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_investments:0 "Baltische Investitionen"</v>
       </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
-        <v/>
+        <v> BALTIC_investments:0 "Baltische Investitionen"</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="C204" s="1" t="str">
         <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_trade:0 "Investierte in den baltischen Handel"</v>
       </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
-        <v/>
+        <v> BALTIC_trade:0 "Investierte in den baltischen Handel"</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="C205" s="1" t="str">
         <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v> ""</v>
+        <v> refused_baltic_entente_opinion:0 "Verweigerte die Baltische Entente"</v>
       </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
-        <v/>
+        <v> refused_baltic_entente_opinion:0 "Verweigerte die Baltische Entente"</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="C206" s="1" t="str">
         <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v> ""</v>
+        <v> fortified_memel:0 "Festung Memelland"</v>
       </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
-        <v/>
+        <v> fortified_memel:0 "Festung Memelland"</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_reached_out:0 "Diplomatischer Einsatz"</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v/>
+        <v> BALTIC_reached_out:0 "Diplomatischer Einsatz"</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C208" s="1" t="str">
         <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v> ""</v>
+        <v> BALTIC_supported_fascism:0 "Unterstützte den baltischen Nationalismus"</v>
       </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
-        <v/>
+        <v> BALTIC_supported_fascism:0 "Unterstützte den baltischen Nationalismus"</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> ""</v>
+        <v> accepted_catholics:0 "Akzeptierte die Katholiken"</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v/>
+        <v> accepted_catholics:0 "Akzeptierte die Katholiken"</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C210" s="1" t="str">
         <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v> ""</v>
+        <v> annex_liberia_opinion:0 "Annexion von Liberia"</v>
       </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
-        <v/>
+        <v> annex_liberia_opinion:0 "Annexion von Liberia"</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
@@ -2259,29 +4704,38 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C212" s="1" t="str">
         <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v> ""</v>
+        <v> ##### BICE ##### ""</v>
       </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
-        <v/>
+        <v> ##### BICE ##### ""</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C213" s="1" t="str">
         <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v> ""</v>
+        <v> dismal_enigma:0 "Geheimdienstoffizier"</v>
       </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
-        <v/>
+        <v> dismal_enigma:0 "Geheimdienstoffizier"</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="1" t="str">
         <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
@@ -2291,7 +4745,7 @@
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="1" t="str">
         <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
@@ -2301,7 +4755,7 @@
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="1" t="str">
         <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
@@ -2311,7 +4765,7 @@
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="1" t="str">
         <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
@@ -2321,7 +4775,7 @@
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
@@ -2331,7 +4785,7 @@
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="1" t="str">
         <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
@@ -2341,7 +4795,7 @@
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="1" t="str">
         <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
@@ -2351,7 +4805,7 @@
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="1" t="str">
         <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
@@ -2361,7 +4815,7 @@
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="1" t="str">
         <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
@@ -2371,7 +4825,7 @@
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="1" t="str">
         <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
@@ -2381,7 +4835,7 @@
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="1" t="str">
         <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
@@ -2391,7 +4845,7 @@
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
@@ -2401,7 +4855,7 @@
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
@@ -2411,7 +4865,7 @@
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="1" t="str">
         <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
@@ -2421,7 +4875,7 @@
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
@@ -2431,7 +4885,7 @@
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="1" t="str">
         <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
@@ -2441,7 +4895,7 @@
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="1" t="str">
         <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
@@ -2451,7 +4905,7 @@
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="1" t="str">
         <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
@@ -2461,7 +4915,7 @@
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
@@ -2471,7 +4925,7 @@
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="1" t="str">
         <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
@@ -2481,7 +4935,7 @@
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="1" t="str">
         <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
@@ -2491,7 +4945,7 @@
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="1" t="str">
         <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
@@ -2501,7 +4955,7 @@
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="1" t="str">
         <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
@@ -2511,7 +4965,7 @@
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="1" t="str">
         <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
@@ -2521,7 +4975,7 @@
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="1" t="str">
         <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
@@ -2531,7 +4985,7 @@
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="1" t="str">
         <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
@@ -2541,7 +4995,7 @@
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="1" t="str">
         <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
@@ -2551,7 +5005,7 @@
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="1" t="str">
         <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
@@ -2561,7 +5015,7 @@
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="1" t="str">
         <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
@@ -2571,7 +5025,7 @@
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="1" t="str">
         <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
@@ -2581,7 +5035,7 @@
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="1" t="str">
         <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
@@ -2591,7 +5045,7 @@
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="1" t="str">
         <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
@@ -2601,7 +5055,7 @@
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="1" t="str">
         <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
@@ -2611,7 +5065,7 @@
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="1" t="str">
         <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
@@ -2621,7 +5075,7 @@
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
@@ -2631,7 +5085,7 @@
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="1" t="str">
         <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
@@ -2641,7 +5095,7 @@
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="1" t="str">
         <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
@@ -2651,7 +5105,7 @@
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="1" t="str">
         <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
@@ -2661,7 +5115,7 @@
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="1" t="str">
         <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
@@ -2671,7 +5125,7 @@
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="1" t="str">
         <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
@@ -2681,7 +5135,7 @@
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="1" t="str">
         <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
@@ -2691,7 +5145,7 @@
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="1" t="str">
         <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
@@ -2701,7 +5155,7 @@
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="1" t="str">
         <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
@@ -2711,7 +5165,7 @@
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="1" t="str">
         <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
@@ -2721,7 +5175,7 @@
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="1" t="str">
         <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
@@ -2731,7 +5185,7 @@
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="1" t="str">
         <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
@@ -2741,7 +5195,7 @@
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="1" t="str">
         <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
@@ -2751,7 +5205,7 @@
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="1" t="str">
         <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
@@ -2761,7 +5215,7 @@
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="1" t="str">
         <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
@@ -2771,7 +5225,7 @@
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="1" t="str">
         <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
@@ -2781,7 +5235,7 @@
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="1" t="str">
         <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
@@ -2791,7 +5245,7 @@
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="1" t="str">
         <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
@@ -2801,7 +5255,7 @@
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="1" t="str">
         <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
@@ -2811,7 +5265,7 @@
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="1" t="str">
         <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
@@ -2821,7 +5275,7 @@
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="1" t="str">
         <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
@@ -2831,7 +5285,7 @@
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="1" t="str">
         <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
@@ -2841,7 +5295,7 @@
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="1" t="str">
         <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
@@ -2851,7 +5305,7 @@
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="1" t="str">
         <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
@@ -2861,7 +5315,7 @@
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="1" t="str">
         <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
@@ -2871,7 +5325,7 @@
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="1" t="str">
         <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
@@ -2881,7 +5335,7 @@
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="1" t="str">
         <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
@@ -2891,7 +5345,7 @@
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="1" t="str">
         <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
@@ -2901,7 +5355,7 @@
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="1" t="str">
         <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
@@ -2911,7 +5365,7 @@
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="1" t="str">
         <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
@@ -2921,7 +5375,7 @@
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="1" t="str">
         <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
@@ -2931,7 +5385,7 @@
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="1" t="str">
         <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
@@ -2941,7 +5395,7 @@
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="1" t="str">
         <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
@@ -2949,10 +5403,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="2"/>
+      <c r="B281" s="3"/>
       <c r="C281" s="1" t="str">
         <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
@@ -2962,7 +5416,7 @@
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="1" t="str">
         <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
@@ -2972,7 +5426,7 @@
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="1" t="str">
         <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
@@ -2982,7 +5436,7 @@
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="1" t="str">
         <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
@@ -2992,7 +5446,7 @@
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="1" t="str">
         <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
@@ -3002,7 +5456,7 @@
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="1" t="str">
         <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
@@ -3012,7 +5466,7 @@
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="1" t="str">
         <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
@@ -3022,7 +5476,7 @@
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="1" t="str">
         <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
@@ -3032,7 +5486,7 @@
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="1" t="str">
         <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
@@ -3042,7 +5496,7 @@
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="1" t="str">
         <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
@@ -3052,7 +5506,7 @@
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="1" t="str">
         <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
@@ -3062,7 +5516,7 @@
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="1" t="str">
         <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
@@ -3072,7 +5526,7 @@
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="1" t="str">
         <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
@@ -3082,7 +5536,7 @@
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="1" t="str">
         <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
@@ -3092,7 +5546,7 @@
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="1" t="str">
         <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
@@ -3102,7 +5556,7 @@
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="1" t="str">
         <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
@@ -3112,7 +5566,7 @@
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="1" t="str">
         <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
@@ -3122,7 +5576,7 @@
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="1" t="str">
         <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
@@ -3132,7 +5586,7 @@
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="1" t="str">
         <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
@@ -3142,7 +5596,7 @@
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="1" t="str">
         <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
@@ -3152,7 +5606,7 @@
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
@@ -3162,7 +5616,7 @@
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="1" t="str">
         <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
@@ -3172,7 +5626,7 @@
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="1" t="str">
         <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
@@ -3182,7 +5636,7 @@
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
@@ -3192,7 +5646,7 @@
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
@@ -3202,7 +5656,7 @@
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="1" t="str">
         <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
@@ -3212,7 +5666,7 @@
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="1" t="str">
         <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
@@ -3222,7 +5676,7 @@
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="1" t="str">
         <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
@@ -3232,7 +5686,7 @@
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="1" t="str">
         <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
@@ -3242,7 +5696,7 @@
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="1" t="str">
         <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
@@ -3252,7 +5706,7 @@
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="1" t="str">
         <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
@@ -3262,7 +5716,7 @@
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="1" t="str">
         <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
@@ -3272,7 +5726,7 @@
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="1" t="str">
         <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
@@ -3282,7 +5736,7 @@
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="1" t="str">
         <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
@@ -3292,7 +5746,7 @@
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="1" t="str">
         <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
@@ -3302,7 +5756,7 @@
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="1" t="str">
         <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
@@ -3312,7 +5766,7 @@
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="1" t="str">
         <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
@@ -3322,7 +5776,7 @@
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="1" t="str">
         <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
@@ -3332,7 +5786,7 @@
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="1" t="str">
         <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
@@ -3342,7 +5796,7 @@
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="1" t="str">
         <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
@@ -3352,7 +5806,7 @@
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="1" t="str">
         <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
@@ -3362,7 +5816,7 @@
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
@@ -3372,7 +5826,7 @@
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="1" t="str">
         <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
@@ -3382,7 +5836,7 @@
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="1" t="str">
         <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
@@ -3392,7 +5846,7 @@
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="1" t="str">
         <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
@@ -3402,7 +5856,7 @@
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="1" t="str">
         <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
@@ -3412,7 +5866,7 @@
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="1" t="str">
         <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
@@ -3422,7 +5876,7 @@
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="1" t="str">
         <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
@@ -3432,7 +5886,7 @@
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="1" t="str">
         <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
@@ -3442,7 +5896,7 @@
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
@@ -3452,7 +5906,7 @@
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="1" t="str">
         <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
@@ -3462,7 +5916,7 @@
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="1" t="str">
         <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
@@ -3472,7 +5926,7 @@
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="1" t="str">
         <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
@@ -3482,7 +5936,7 @@
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="1" t="str">
         <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
@@ -3492,7 +5946,7 @@
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="1" t="str">
         <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
@@ -3502,7 +5956,7 @@
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="1" t="str">
         <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
@@ -3512,7 +5966,7 @@
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="1" t="str">
         <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
@@ -3522,7 +5976,7 @@
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="1" t="str">
         <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
@@ -3532,7 +5986,7 @@
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="1" t="str">
         <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
@@ -3542,7 +5996,7 @@
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="1" t="str">
         <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
@@ -3552,7 +6006,7 @@
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
@@ -3562,7 +6016,7 @@
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="1" t="str">
         <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
@@ -3572,7 +6026,7 @@
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="1" t="str">
         <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
@@ -3582,7 +6036,7 @@
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
@@ -3592,7 +6046,7 @@
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="1" t="str">
         <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
@@ -3602,7 +6056,7 @@
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="1" t="str">
         <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
@@ -3612,7 +6066,7 @@
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="1" t="str">
         <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
@@ -3622,7 +6076,7 @@
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="1" t="str">
         <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
@@ -3632,7 +6086,7 @@
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="1" t="str">
         <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
@@ -3642,7 +6096,7 @@
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="1" t="str">
         <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
@@ -3652,7 +6106,7 @@
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="1" t="str">
         <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
@@ -3662,7 +6116,7 @@
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="1" t="str">
         <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
@@ -3672,7 +6126,7 @@
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="1" t="str">
         <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
@@ -3682,7 +6136,7 @@
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="1" t="str">
         <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
@@ -3692,7 +6146,7 @@
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="1" t="str">
         <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
@@ -3702,7 +6156,7 @@
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="1" t="str">
         <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
@@ -3712,7 +6166,7 @@
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
@@ -3722,7 +6176,7 @@
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="1" t="str">
         <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
@@ -3732,7 +6186,7 @@
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="1" t="str">
         <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
@@ -3742,7 +6196,7 @@
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="1" t="str">
         <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
@@ -3752,7 +6206,7 @@
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="1" t="str">
         <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
@@ -3762,7 +6216,7 @@
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="1" t="str">
         <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
@@ -3772,7 +6226,7 @@
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="1" t="str">
         <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
@@ -3782,7 +6236,7 @@
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="1" t="str">
         <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
@@ -3792,7 +6246,7 @@
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="1" t="str">
         <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
@@ -3802,7 +6256,7 @@
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="1" t="str">
         <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
@@ -3812,7 +6266,7 @@
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="1" t="str">
         <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
@@ -3822,7 +6276,7 @@
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="1" t="str">
         <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
@@ -3832,7 +6286,7 @@
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="1" t="str">
         <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
@@ -3842,7 +6296,7 @@
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="1" t="str">
         <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
@@ -3852,7 +6306,7 @@
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="1" t="str">
         <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
@@ -3862,7 +6316,7 @@
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="1" t="str">
         <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
@@ -3872,7 +6326,7 @@
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="1" t="str">
         <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
@@ -3882,7 +6336,7 @@
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="1" t="str">
         <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
@@ -3892,7 +6346,7 @@
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="1" t="str">
         <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
@@ -3902,7 +6356,7 @@
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="1" t="str">
         <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
@@ -3912,7 +6366,7 @@
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="1" t="str">
         <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
@@ -3922,7 +6376,7 @@
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="1" t="str">
         <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
@@ -3932,7 +6386,7 @@
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="1" t="str">
         <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
@@ -3942,7 +6396,7 @@
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="1" t="str">
         <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
@@ -3952,7 +6406,7 @@
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="1" t="str">
         <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
@@ -3962,7 +6416,7 @@
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="1" t="str">
         <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
@@ -3972,7 +6426,7 @@
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="1" t="str">
         <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
@@ -3982,7 +6436,7 @@
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="1" t="str">
         <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
@@ -3992,7 +6446,7 @@
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="1" t="str">
         <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
@@ -4002,7 +6456,7 @@
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="1" t="str">
         <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
@@ -4012,7 +6466,7 @@
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="1" t="str">
         <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
@@ -4022,7 +6476,7 @@
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="1" t="str">
         <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
@@ -4032,7 +6486,7 @@
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="1" t="str">
         <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
@@ -4042,7 +6496,7 @@
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="1" t="str">
         <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
@@ -4052,7 +6506,7 @@
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="1" t="str">
         <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
@@ -4062,7 +6516,7 @@
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="1" t="str">
         <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
@@ -4072,7 +6526,7 @@
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="1" t="str">
         <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
@@ -4082,7 +6536,7 @@
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="1" t="str">
         <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
@@ -4092,7 +6546,7 @@
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="1" t="str">
         <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
@@ -4102,7 +6556,7 @@
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="1" t="str">
         <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
@@ -4112,7 +6566,7 @@
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="1" t="str">
         <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
@@ -4122,7 +6576,7 @@
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="1" t="str">
         <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
@@ -4132,7 +6586,7 @@
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="1" t="str">
         <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
@@ -4142,7 +6596,7 @@
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="1" t="str">
         <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
@@ -4152,7 +6606,7 @@
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="1" t="str">
         <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
@@ -4162,7 +6616,7 @@
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="1" t="str">
         <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
@@ -4172,7 +6626,7 @@
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="1" t="str">
         <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
@@ -4182,7 +6636,7 @@
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="1" t="str">
         <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
@@ -4192,7 +6646,7 @@
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="1" t="str">
         <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
@@ -4202,7 +6656,7 @@
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="1" t="str">
         <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
@@ -4212,7 +6666,7 @@
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="1" t="str">
         <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
@@ -4222,7 +6676,7 @@
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="1" t="str">
         <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
@@ -4232,7 +6686,7 @@
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="1" t="str">
         <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
@@ -4242,7 +6696,7 @@
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="1" t="str">
         <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
@@ -4252,7 +6706,7 @@
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="1" t="str">
         <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
@@ -4262,7 +6716,7 @@
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="1" t="str">
         <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
@@ -4272,7 +6726,7 @@
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="1" t="str">
         <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
@@ -4282,7 +6736,7 @@
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="1" t="str">
         <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
@@ -4292,7 +6746,7 @@
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="1" t="str">
         <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
@@ -4302,7 +6756,7 @@
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="1" t="str">
         <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
@@ -4312,7 +6766,7 @@
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="1" t="str">
         <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
@@ -4322,7 +6776,7 @@
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="1" t="str">
         <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
@@ -4332,7 +6786,7 @@
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="1" t="str">
         <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
@@ -4342,7 +6796,7 @@
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="1" t="str">
         <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
@@ -4352,7 +6806,7 @@
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="1" t="str">
         <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
@@ -4362,7 +6816,7 @@
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="1" t="str">
         <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
@@ -4372,7 +6826,7 @@
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="1" t="str">
         <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
@@ -4382,7 +6836,7 @@
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="1" t="str">
         <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
@@ -4392,7 +6846,7 @@
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="1" t="str">
         <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
@@ -4402,7 +6856,7 @@
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="1" t="str">
         <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
@@ -4412,7 +6866,7 @@
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="1" t="str">
         <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
@@ -4422,7 +6876,7 @@
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="1" t="str">
         <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
@@ -4432,7 +6886,7 @@
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="1" t="str">
         <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
@@ -4442,7 +6896,7 @@
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="1" t="str">
         <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
@@ -4452,7 +6906,7 @@
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="1" t="str">
         <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
@@ -4462,7 +6916,7 @@
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="1" t="str">
         <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
@@ -4472,7 +6926,7 @@
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="1" t="str">
         <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
@@ -4482,7 +6936,7 @@
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="1" t="str">
         <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
@@ -4492,7 +6946,7 @@
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="1" t="str">
         <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
@@ -4502,7 +6956,7 @@
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="1" t="str">
         <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
@@ -4512,7 +6966,7 @@
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="1" t="str">
         <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
@@ -4522,7 +6976,7 @@
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="1" t="str">
         <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
@@ -4532,7 +6986,7 @@
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="1" t="str">
         <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
@@ -4542,7 +6996,7 @@
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="1" t="str">
         <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
@@ -4552,7 +7006,7 @@
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="1" t="str">
         <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
@@ -4562,7 +7016,7 @@
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="1" t="str">
         <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
@@ -4572,7 +7026,7 @@
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="1" t="str">
         <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
@@ -4582,7 +7036,7 @@
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="1" t="str">
         <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
@@ -4592,7 +7046,7 @@
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="1" t="str">
         <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
@@ -4602,7 +7056,7 @@
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="1" t="str">
         <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
@@ -4612,7 +7066,7 @@
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="1" t="str">
         <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
@@ -4622,7 +7076,7 @@
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="1" t="str">
         <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
@@ -4632,7 +7086,7 @@
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="1" t="str">
         <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
@@ -4642,7 +7096,7 @@
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="1" t="str">
         <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
@@ -4652,7 +7106,7 @@
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="1" t="str">
         <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
@@ -4662,7 +7116,7 @@
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="1" t="str">
         <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
@@ -4672,7 +7126,7 @@
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="1" t="str">
         <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
@@ -4682,7 +7136,7 @@
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="1" t="str">
         <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
@@ -4692,7 +7146,7 @@
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="1" t="str">
         <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
@@ -4702,7 +7156,7 @@
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="1" t="str">
         <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
@@ -4712,7 +7166,7 @@
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="1" t="str">
         <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
@@ -4722,7 +7176,7 @@
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="1" t="str">
         <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
@@ -4732,7 +7186,7 @@
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="1" t="str">
         <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
@@ -4742,7 +7196,7 @@
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="1" t="str">
         <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
@@ -4752,7 +7206,7 @@
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="1" t="str">
         <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
@@ -4762,7 +7216,7 @@
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="1" t="str">
         <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
@@ -4772,7 +7226,7 @@
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="1" t="str">
         <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
@@ -4782,7 +7236,7 @@
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="1" t="str">
         <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
@@ -4792,7 +7246,7 @@
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="1" t="str">
         <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
@@ -4802,7 +7256,7 @@
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="1" t="str">
         <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
@@ -4812,7 +7266,7 @@
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="1" t="str">
         <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
@@ -4822,7 +7276,7 @@
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="1" t="str">
         <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
@@ -4832,7 +7286,7 @@
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="1" t="str">
         <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
@@ -4842,7 +7296,7 @@
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="1" t="str">
         <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
@@ -4852,7 +7306,7 @@
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="1" t="str">
         <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
@@ -4862,7 +7316,7 @@
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="1" t="str">
         <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
@@ -4872,7 +7326,7 @@
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="1" t="str">
         <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
@@ -4882,7 +7336,7 @@
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="1" t="str">
         <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
@@ -4892,7 +7346,7 @@
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="1" t="str">
         <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
@@ -4902,7 +7356,7 @@
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="1" t="str">
         <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
@@ -4912,7 +7366,7 @@
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="1" t="str">
         <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
@@ -4922,7 +7376,7 @@
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="1" t="str">
         <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
@@ -4932,7 +7386,7 @@
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="1" t="str">
         <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
@@ -4942,7 +7396,7 @@
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="1" t="str">
         <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
@@ -4952,7 +7406,7 @@
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="1" t="str">
         <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
@@ -4962,7 +7416,7 @@
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="1" t="str">
         <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
@@ -4972,7 +7426,7 @@
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="1" t="str">
         <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
@@ -4982,7 +7436,7 @@
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="1" t="str">
         <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
@@ -4992,7 +7446,7 @@
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="1" t="str">
         <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
@@ -5002,7 +7456,7 @@
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="1" t="str">
         <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
@@ -5012,7 +7466,7 @@
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="1" t="str">
         <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
@@ -5022,7 +7476,7 @@
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="1" t="str">
         <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
@@ -5032,7 +7486,7 @@
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="1" t="str">
         <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
@@ -5042,7 +7496,7 @@
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="1" t="str">
         <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
@@ -5052,7 +7506,7 @@
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="1" t="str">
         <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
